--- a/data/results/final_RWvsGRWvsTrue_top10.xlsx
+++ b/data/results/final_RWvsGRWvsTrue_top10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panos\Dropbox\Modeling_and_Data_Analysis_in_Complex_Networks\2_Assignments\2_Final_Assignment\Complex-Networks-Final-Project\data\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psoilis/Dropbox/Modeling_and_Data_Analysis_in_Complex_Networks/2_Assignments/2_Final_Assignment/Complex-Networks-Final-Project/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC74246-FBF8-4EA4-9007-555484627607}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274C533-CB6F-D949-BAA0-E0CB469996A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_RWvsGRWvsTrue_top10" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>0.0469599</t>
   </si>
@@ -147,38 +147,62 @@
     <t>0.0015073</t>
   </si>
   <si>
-    <t>0671027352</t>
-  </si>
-  <si>
-    <t>0671027360</t>
-  </si>
-  <si>
-    <t>B00008OWZG</t>
-  </si>
-  <si>
-    <t>B00004XPP0</t>
-  </si>
-  <si>
-    <t>0807220299</t>
-  </si>
-  <si>
-    <t>043935806X</t>
-  </si>
-  <si>
-    <t>0439567629</t>
-  </si>
-  <si>
-    <t>0807220280</t>
-  </si>
-  <si>
-    <t>080728162X</t>
+    <t>Position in True</t>
+  </si>
+  <si>
+    <t>Avg. Pos</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>0609610570</t>
+  </si>
+  <si>
+    <t>0.0015</t>
+  </si>
+  <si>
+    <t>0875849105</t>
+  </si>
+  <si>
+    <t>0.0163968</t>
+  </si>
+  <si>
+    <t>0684801523</t>
+  </si>
+  <si>
+    <t>1570429596</t>
+  </si>
+  <si>
+    <t>1586210912</t>
+  </si>
+  <si>
+    <t>0446677450</t>
+  </si>
+  <si>
+    <t>0446310786</t>
+  </si>
+  <si>
+    <t>0316316962</t>
+  </si>
+  <si>
+    <t>1570427933</t>
+  </si>
+  <si>
+    <t>0060938455</t>
+  </si>
+  <si>
+    <t>0805063897</t>
+  </si>
+  <si>
+    <t>B000089CJI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +362,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -700,9 +732,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,8 +746,8 @@
     <xf numFmtId="49" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1069,241 +1103,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="8">
+        <v>158</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1">
-        <v>335</v>
+      <c r="G3" s="8">
+        <v>2424</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1">
+        <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="8">
+        <v>190</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1">
-        <v>333</v>
+      <c r="G4" s="8">
+        <v>9260</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1">
+        <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="8">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="1">
-        <v>232</v>
+      <c r="G5" s="8">
+        <v>1166</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1">
+        <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="8">
+        <v>8984</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="1">
-        <v>230</v>
+      <c r="G6" s="8">
+        <v>9910</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="8">
+        <v>398</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="1">
-        <v>213</v>
+      <c r="G7" s="8">
+        <v>1736</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1">
+        <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="8">
+        <v>395</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1">
-        <v>210</v>
+      <c r="G8" s="8">
+        <v>8984</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="1">
+        <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="8">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="1">
-        <v>207</v>
+      <c r="G9" s="8">
+        <v>158</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="1">
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="8">
+        <v>1880</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1">
-        <v>206</v>
+      <c r="G10" s="8">
+        <v>329</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="1">
+        <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="8">
+        <v>354</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="1">
-        <v>206</v>
+      <c r="G11" s="8">
+        <v>1788</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3133</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C3:C12)</f>
+        <v>1249.7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(G3:G12)</f>
+        <v>3888.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <f>MEDIAN(C3:C12)</f>
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <f>MEDIAN(G3:G12)</f>
+        <v>2106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
